--- a/biology/Médecine/Syndrome_SAPHO/Syndrome_SAPHO.xlsx
+++ b/biology/Médecine/Syndrome_SAPHO/Syndrome_SAPHO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SAPHO (Synovite, Acné, Pustulose palmo-plantaire, Hyperostose et Ostéite) est un ensemble d’anomalies pouvant toucher un individu de n'importe quel âge, et qui se caractérise par l’association des symptômes suivants :
 de manifestations cutanées :
@@ -522,7 +534,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fréquence du syndrome SAPHO dans la population est difficile à évaluer (environ une personne pour 10 000), faute de recensement précis des cas avérés. Il a été observé au Japon et en Europe occidentale, notamment dans les pays scandinaves, depuis le début des années 60. Depuis, des cas ont été rapportés en provenance d'autres régions du monde, notamment des États-Unis et d'Australie.
 Cette affection concerne approximativement deux femmes contre un homme (2F/1H), et l'âge moyen de déclaration des symptômes se situe aux alentours de 30 ans, même si on recense des formes juvéniles (également dénommées ostéites chroniques multifocales récurrentes), ou au contraire tardives.
@@ -555,9 +569,11 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'évolution clinique est le plus souvent chronique, même si les symptômes peuvent régresser de façon spontanée[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'évolution clinique est le plus souvent chronique, même si les symptômes peuvent régresser de façon spontanée.
 Il n'y a jamais de lésions malignes ou septiques.
 </t>
         </is>
@@ -587,7 +603,9 @@
           <t>Complications possibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été constaté une possibilité de complication vers l'uvéite ou la maladie de Crohn.
 </t>
@@ -618,9 +636,11 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il n'existe pas de traitement codifié pour le syndrome SAPHO, qui reste essentiellement symptomatique. Cependant, des essais thérapeutiques semblent rencontrer, selon les cas, de bons taux de réussite[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il n'existe pas de traitement codifié pour le syndrome SAPHO, qui reste essentiellement symptomatique. Cependant, des essais thérapeutiques semblent rencontrer, selon les cas, de bons taux de réussite :
 les anti-inflammatoires non stéroïdiens (AINS) ;
 les sulfamidés, comme la sulfasalazine ;
 les anti-TNF alpha ;
